--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf17.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf17.xlsx
@@ -534,22 +534,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.02589133333333334</v>
+        <v>0.08897633333333334</v>
       </c>
       <c r="H2">
-        <v>0.07767400000000001</v>
+        <v>0.266929</v>
       </c>
       <c r="I2">
-        <v>0.004658582669675427</v>
+        <v>0.01166961909325238</v>
       </c>
       <c r="J2">
-        <v>0.004696039738046181</v>
+        <v>0.01190636343604672</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,10 +558,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1650043333333333</v>
+        <v>0.09788266666666667</v>
       </c>
       <c r="N2">
-        <v>0.495013</v>
+        <v>0.293648</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.004272182195777778</v>
+        <v>0.00870924077688889</v>
       </c>
       <c r="R2">
-        <v>0.03844963976200001</v>
+        <v>0.07838316699200001</v>
       </c>
       <c r="S2">
-        <v>0.004658582669675427</v>
+        <v>0.01166961909325238</v>
       </c>
       <c r="T2">
-        <v>0.004696039738046181</v>
+        <v>0.01190636343604672</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>10.896385</v>
       </c>
       <c r="I3">
-        <v>0.6535225470956983</v>
+        <v>0.4763688563004725</v>
       </c>
       <c r="J3">
-        <v>0.6587771578784449</v>
+        <v>0.4860330647816007</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,10 +620,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1650043333333333</v>
+        <v>0.09788266666666667</v>
       </c>
       <c r="N3">
-        <v>0.495013</v>
+        <v>0.293648</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.5993169142227779</v>
+        <v>0.3555224069422223</v>
       </c>
       <c r="R3">
-        <v>5.393852228005001</v>
+        <v>3.19970166248</v>
       </c>
       <c r="S3">
-        <v>0.6535225470956983</v>
+        <v>0.4763688563004725</v>
       </c>
       <c r="T3">
-        <v>0.6587771578784449</v>
+        <v>0.4860330647816007</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.033372666666667</v>
+        <v>1.962678</v>
       </c>
       <c r="H4">
-        <v>3.100118</v>
+        <v>5.888033999999999</v>
       </c>
       <c r="I4">
-        <v>0.1859329503920082</v>
+        <v>0.2574134469769833</v>
       </c>
       <c r="J4">
-        <v>0.1874279336796386</v>
+        <v>0.262635654903738</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,10 +682,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1650043333333333</v>
+        <v>0.09788266666666667</v>
       </c>
       <c r="N4">
-        <v>0.495013</v>
+        <v>0.293648</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.1705109679482222</v>
+        <v>0.192112156448</v>
       </c>
       <c r="R4">
-        <v>1.534598711534</v>
+        <v>1.729009408032</v>
       </c>
       <c r="S4">
-        <v>0.1859329503920082</v>
+        <v>0.2574134469769833</v>
       </c>
       <c r="T4">
-        <v>0.1874279336796386</v>
+        <v>0.262635654903738</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1329915</v>
+        <v>0.45482</v>
       </c>
       <c r="H5">
-        <v>0.265983</v>
+        <v>0.90964</v>
       </c>
       <c r="I5">
-        <v>0.023928929774988</v>
+        <v>0.0596515495430588</v>
       </c>
       <c r="J5">
-        <v>0.01608088598044052</v>
+        <v>0.04057447649362016</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1650043333333333</v>
+        <v>0.09788266666666667</v>
       </c>
       <c r="N5">
-        <v>0.495013</v>
+        <v>0.293648</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.0219441737965</v>
+        <v>0.04451899445333334</v>
       </c>
       <c r="R5">
-        <v>0.131665042779</v>
+        <v>0.26711396672</v>
       </c>
       <c r="S5">
-        <v>0.023928929774988</v>
+        <v>0.0596515495430588</v>
       </c>
       <c r="T5">
-        <v>0.01608088598044052</v>
+        <v>0.04057447649362016</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7333866666666667</v>
+        <v>1.486010666666667</v>
       </c>
       <c r="H6">
-        <v>2.20016</v>
+        <v>4.458032</v>
       </c>
       <c r="I6">
-        <v>0.1319569900676299</v>
+        <v>0.194896528086233</v>
       </c>
       <c r="J6">
-        <v>0.1330179827234298</v>
+        <v>0.1988504403849946</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1650043333333333</v>
+        <v>0.09788266666666667</v>
       </c>
       <c r="N6">
-        <v>0.495013</v>
+        <v>0.293648</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.1210119780088889</v>
+        <v>0.1454546867484445</v>
       </c>
       <c r="R6">
-        <v>1.08910780208</v>
+        <v>1.309092180736</v>
       </c>
       <c r="S6">
-        <v>0.1319569900676299</v>
+        <v>0.194896528086233</v>
       </c>
       <c r="T6">
-        <v>0.1330179827234298</v>
+        <v>0.1988504403849946</v>
       </c>
     </row>
   </sheetData>
